--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/Repeat/X15 at 4200 repeat.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/Repeat/X15 at 4200 repeat.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\check\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\VO2_Physioflow_Avg_Match_Watts_Dean\physioflow\Repeat\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3CDF35-C954-4DFE-BF03-0ABF6BA8AF68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -102,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,6 +158,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -192,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,9 +242,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,6 +294,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,10 +486,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" activeCellId="1" sqref="A6:A26 E6:E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1653,7 +1706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1665,7 +1718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
